--- a/excel/20230113mydyrnd00.xlsx
+++ b/excel/20230113mydyrnd00.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>gKey</t>
   </si>
@@ -192,24 +192,12 @@
     <t>https://www.google.com/maps/d/embed?mid=1uCSl3Hf9lG9KhiA4f7pXLCNO6rGKmTY&amp;ehbc=2E312F</t>
   </si>
   <si>
-    <t>   &lt;iframe src="TOKEN"&gt; &lt;/iframe&gt;</t>
-  </si>
-  <si>
     <t>&lt;/figure&gt;</t>
   </si>
   <si>
-    <t>    &lt;figcaption&gt;TOKEN&lt;/figcaption&gt;</t>
-  </si>
-  <si>
     <t>/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">    &lt;img src="TOKEN"  </t>
-  </si>
-  <si>
-    <t>    alt="TOKEN"&gt;</t>
-  </si>
-  <si>
     <t>June cruise to Alaska on the Norwegian Sun.</t>
   </si>
   <si>
@@ -219,9 +207,6 @@
     <t>Google My Map</t>
   </si>
   <si>
-    <t>&lt;h4&gt;TOKEN&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>&lt;br&gt;</t>
   </si>
   <si>
@@ -237,16 +222,112 @@
     <t>/images/202206Alaska/IMG_20220531_173736734_HDR240085.jpg</t>
   </si>
   <si>
-    <t>Norwegian Sun, departure day Seattle</t>
-  </si>
-  <si>
-    <t>"https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina" target="_blank"&gt;LA CUCINA, Italian specialty dining</t>
-  </si>
-  <si>
-    <t>   &lt;a href=TOKEN&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>    &lt;img src="TOKEN01"  alt="TOKEN02"&gt;</t>
+    <t>&lt;h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;img </t>
+  </si>
+  <si>
+    <t>    &gt;</t>
+  </si>
+  <si>
+    <t>      &lt;figcaption&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;a href=</t>
+  </si>
+  <si>
+    <t>            target="_blank"</t>
+  </si>
+  <si>
+    <t>        &gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/figcaption&gt;</t>
+  </si>
+  <si>
+    <t>KeyValue</t>
+  </si>
+  <si>
+    <t>Norwegian Sun departure day Seattle</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Calc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;iframe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &gt; </t>
+  </si>
+  <si>
+    <t>    &lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>        src=</t>
+  </si>
+  <si>
+    <t>        alt=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input - Map Title </t>
+  </si>
+  <si>
+    <t>Input - Item Title</t>
+  </si>
+  <si>
+    <t>Input - MyMaps Link | Calc Quotes</t>
+  </si>
+  <si>
+    <t>Input - Image Link | Calc Quotes</t>
+  </si>
+  <si>
+    <t>Input - Image Alt | Calc Quotes</t>
+  </si>
+  <si>
+    <t>Input - Image Title</t>
+  </si>
+  <si>
+    <t>Input - Image Title Link | Calc Quotes</t>
+  </si>
+  <si>
+    <t>Input - Image Title Link Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        title=</t>
+  </si>
+  <si>
+    <t>Google My Maps</t>
+  </si>
+  <si>
+    <t>Input - MyMaps Alt | Calc Quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departure and dinner at, </t>
+  </si>
+  <si>
+    <t>https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina</t>
+  </si>
+  <si>
+    <t>       &lt;!-- &lt;a href=</t>
+  </si>
+  <si>
+    <t>        &lt;/a&gt; --&gt;</t>
   </si>
 </sst>
 </file>
@@ -266,12 +347,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,18 +379,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -663,26 +768,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="D2:L57"/>
+  <dimension ref="D2:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="92.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="7" max="9" width="33.7109375" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="101.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>26</v>
       </c>
@@ -693,7 +796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>8</v>
       </c>
@@ -713,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -731,7 +834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>24</v>
       </c>
@@ -745,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>25</v>
       </c>
@@ -759,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -773,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>21</v>
       </c>
@@ -787,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>22</v>
       </c>
@@ -801,7 +904,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -815,7 +918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>23</v>
       </c>
@@ -829,7 +932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>2</v>
       </c>
@@ -837,592 +940,1483 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J14:J32" si="0">IF(I14 &lt;&gt; "", I14,IF(H14 &lt;&gt; "",H14,""))</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" ref="K14:K32" si="1">CONCATENATE(G14,J14)</f>
+        <v>&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;h4&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>Day 1 - Seattle | 05-31</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>Day 1 - Seattle | 05-31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;/h4&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;figure&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    &lt;img </v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="str">
+        <f>CONCATENATE($H$5,H20,$H$5)</f>
+        <v>"/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>"/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>        src="/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" t="str">
+        <f>CONCATENATE($H$5,H21,$H$5)</f>
+        <v>"Norwegian Sun departure day Seattle"</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Norwegian Sun departure day Seattle"</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>        alt="Norwegian Sun departure day Seattle"</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>    &gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>      &lt;figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>Norwegian Sun departure day Seattle</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>        Norwegian Sun departure day Seattle</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>        &lt;a href=</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>            target="_blank"</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>        &gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>        &lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>    &lt;/figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;/figure&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E35" t="s">
         <v>48</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
         <v>8</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" t="str">
-        <f>CONCATENATE($E$4,TEXT(E25,"0000"))</f>
+      <c r="K35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" t="str">
+        <f>CONCATENATE($E$4,TEXT(E36,"0000"))</f>
         <v>Alaska20220601Cruise0025</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E36" s="1">
         <v>25</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="2"/>
-      <c r="L25" s="2" t="str">
-        <f>G25</f>
+      <c r="J36" t="str">
+        <f>IF(I36 &lt;&gt; "", I36,IF(H36 &lt;&gt; "",H36,""))</f>
         <v>---</v>
       </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" t="str">
-        <f>CONCATENATE($E$4,TEXT(E26,"0000"))</f>
+      <c r="K36" s="2" t="str">
+        <f>J36</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" t="str">
+        <f>CONCATENATE($E$4,TEXT(E37,"0000"))</f>
         <v>Alaska20220601Cruise0026</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E37" s="1">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="G26" t="str">
+      <c r="I37" t="str">
         <f>E5</f>
         <v>Active</v>
       </c>
-      <c r="L26" t="str">
-        <f>CONCATENATE(F26,$H$6,$H$4,$H$5,G26,$H$5)</f>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37:J79" si="2">IF(I37 &lt;&gt; "", I37,IF(H37 &lt;&gt; "",H37,""))</f>
+        <v>Active</v>
+      </c>
+      <c r="K37" t="str">
+        <f>CONCATENATE(G37,$H$6,$H$4,$H$5,J37,$H$5)</f>
         <v>mdStatus: "Active"</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" t="str">
-        <f t="shared" ref="D27:D57" si="0">CONCATENATE($E$4,TEXT(E27,"0000"))</f>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="str">
+        <f t="shared" ref="D38:D79" si="3">CONCATENATE($E$4,TEXT(E38,"0000"))</f>
         <v>Alaska20220601Cruise0027</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E38" s="1">
         <v>27</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G38" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I38" s="1">
         <f>E6</f>
         <v>10</v>
       </c>
-      <c r="L27" t="str">
-        <f>CONCATENATE(F27,$H$6,$H$4,$H$5,G27,$H$5)</f>
-        <v>mdVersion: "10"</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K38" t="str">
+        <f>CONCATENATE(G38,$H$6,$H$4,$H$5,TEXT(J38,"0000"),$H$5)</f>
+        <v>mdVersion: "0010"</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0028</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E39" s="1">
         <v>28</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="G28" t="str">
+      <c r="I39" t="str">
         <f>CONCATENATE(E7,H4,H7,H4,E8,H4,E10,H4,H7,H4,E12)</f>
         <v>Alaska | 2022 June | Cruise</v>
       </c>
-      <c r="L28" t="str">
-        <f>CONCATENATE(F28,$H$6,$H$4,$H$5,G28,$H$5)</f>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v>Alaska | 2022 June | Cruise</v>
+      </c>
+      <c r="K39" t="str">
+        <f>CONCATENATE(G39,$H$6,$H$4,$H$5,J39,$H$5)</f>
         <v>title: "Alaska | 2022 June | Cruise"</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0029</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E40" s="1">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G40" t="s">
         <v>14</v>
       </c>
-      <c r="G29" t="str">
+      <c r="I40" t="str">
         <f>CONCATENATE(E8,H8,TEXT(E9,"00"),H8,TEXT(E11,"00"))</f>
         <v>2022-06-01</v>
       </c>
-      <c r="L29" t="str">
-        <f>CONCATENATE(F29,$H$6,$H$4,$H$5,G29,$H$5)</f>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>2022-06-01</v>
+      </c>
+      <c r="K40" t="str">
+        <f>CONCATENATE(G40,$H$6,$H$4,$H$5,J40,$H$5)</f>
         <v>date: "2022-06-01"</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0030</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E41" s="1">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H41" t="s">
         <v>38</v>
       </c>
-      <c r="L30" t="str">
-        <f>CONCATENATE(F30,$H$6,$H$4,$H$5,G30,$H$5)</f>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>This is meta description</v>
+      </c>
+      <c r="K41" t="str">
+        <f>CONCATENATE(G41,$H$6,$H$4,$H$5,J41,$H$5)</f>
         <v>description: "This is meta description"</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0031</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E42" s="1">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G42" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H42" t="s">
         <v>39</v>
       </c>
-      <c r="L31" t="str">
-        <f>CONCATENATE(F31,$H$6,$H$4,$H$5,G31,$H$5)</f>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>post</v>
+      </c>
+      <c r="K42" t="str">
+        <f>CONCATENATE(G42,$H$6,$H$4,$H$5,J42,$H$5)</f>
         <v>type: "post"</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0032</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E43" s="1">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H43" t="s">
         <v>40</v>
       </c>
-      <c r="L32" t="str">
-        <f>CONCATENATE(F32,$H$6,$H$4,$H$5,G32,$H$5)</f>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>images/202206Alaska/IMG_20220602_125842380_HDR.jpg</v>
+      </c>
+      <c r="K43" t="str">
+        <f>CONCATENATE(G43,$H$6,$H$4,$H$5,J43,$H$5)</f>
         <v>image: "images/202206Alaska/IMG_20220602_125842380_HDR.jpg"</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0033</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E44" s="1">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G44" t="s">
         <v>18</v>
       </c>
-      <c r="G33" t="str">
+      <c r="I44" t="str">
         <f>CONCATENATE(H9,H5,E12,H5,H10)</f>
         <v>["Cruise"]</v>
       </c>
-      <c r="L33" t="str">
-        <f>CONCATENATE(F33,$H$6,$H$4,G33)</f>
-        <v>categories: ["Cruise"]</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v>["Cruise"]</v>
+      </c>
+      <c r="K44" t="str">
+        <f>CONCATENATE(G44,$H$6,$H$4,$H$5,J44,$H$5)</f>
+        <v>categories: "["Cruise"]"</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0034</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E45" s="1">
         <v>34</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
-      <c r="G34" t="str">
+      <c r="I45" t="str">
         <f>CONCATENATE(H9,H5,E7,H5,H11,H5,E8,H5,H10)</f>
         <v>["Alaska","2022"]</v>
       </c>
-      <c r="L34" t="str">
-        <f>CONCATENATE(F34,$H$6,$H$4,G34)</f>
-        <v>tags: ["Alaska","2022"]</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>["Alaska","2022"]</v>
+      </c>
+      <c r="K45" t="str">
+        <f>CONCATENATE(G45,$H$6,$H$4,$H$5,J45,$H$5)</f>
+        <v>tags: "["Alaska","2022"]"</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
         <v>Alaska20220601Cruise0035</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E46" s="1">
         <v>35</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G46" t="s">
         <v>12</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v>June cruise to Alaska on the Norwegian Sun.</v>
+      </c>
+      <c r="K46" t="str">
+        <f>CONCATENATE(G46,$H$6,$H$4,$H$5,J46,$H$5)</f>
+        <v>mdDescription: "June cruise to Alaska on the Norwegian Sun."</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0036</v>
+      </c>
+      <c r="E47" s="1">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>---</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f>J47</f>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0037</v>
+      </c>
+      <c r="E49" s="1">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f>CONCATENATE(G49,J49)</f>
+        <v>&lt;h4&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0038</v>
+      </c>
+      <c r="E50" s="1">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>Google My Map</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" ref="K50:K79" si="4">CONCATENATE(G50,J50)</f>
+        <v>Google My Map</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0039</v>
+      </c>
+      <c r="E51" s="1">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>66</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;/h4&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0040</v>
+      </c>
+      <c r="E52" s="1">
+        <v>40</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0041</v>
+      </c>
+      <c r="E53" s="1">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;div class="embed-responsive embed-responsive-16by9"&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0042</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   &lt;iframe </v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0043</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" t="str">
+        <f>CONCATENATE($H$5,H55,$H$5)</f>
+        <v>"https://www.google.com/maps/d/embed?mid=1uCSl3Hf9lG9KhiA4f7pXLCNO6rGKmTY&amp;ehbc=2E312F"</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v>"https://www.google.com/maps/d/embed?mid=1uCSl3Hf9lG9KhiA4f7pXLCNO6rGKmTY&amp;ehbc=2E312F"</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="4"/>
+        <v>        src="https://www.google.com/maps/d/embed?mid=1uCSl3Hf9lG9KhiA4f7pXLCNO6rGKmTY&amp;ehbc=2E312F"</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" t="str">
+        <f>CONCATENATE($H$5,H56,$H$5)</f>
+        <v>"Google My Maps"</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" ref="J56" si="5">IF(I56 &lt;&gt; "", I56,IF(H56 &lt;&gt; "",H56,""))</f>
+        <v>"Google My Maps"</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" ref="K56" si="6">CONCATENATE(G56,J56)</f>
+        <v xml:space="preserve">        title="Google My Maps"</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0044</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    &gt; </v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0045</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="4"/>
+        <v>    &lt;/iframe&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0046</v>
+      </c>
+      <c r="E59" s="1">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0047</v>
+      </c>
+      <c r="E60" s="8">
+        <v>47</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0048</v>
+      </c>
+      <c r="E61" s="1">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;br&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0049</v>
+      </c>
+      <c r="E62" s="1">
+        <v>49</v>
+      </c>
+      <c r="G62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;h4&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0050</v>
+      </c>
+      <c r="E63" s="1">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>Day 1 - Seattle | 05-31</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="4"/>
+        <v>Day 1 - Seattle | 05-31</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0051</v>
+      </c>
+      <c r="E64" s="1">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;/h4&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0052</v>
+      </c>
+      <c r="E65" s="1">
+        <v>52</v>
+      </c>
+      <c r="G65" t="s">
+        <v>51</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;figure&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0053</v>
+      </c>
+      <c r="E66" s="1">
+        <v>53</v>
+      </c>
+      <c r="G66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    &lt;img </v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0054</v>
+      </c>
+      <c r="E67" s="1">
+        <v>54</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="str">
+        <f>CONCATENATE($H$5,H67,$H$5)</f>
+        <v>"/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="2"/>
+        <v>"/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="4"/>
+        <v>        src="/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0055</v>
+      </c>
+      <c r="E68" s="1">
+        <v>55</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" t="str">
+        <f>CONCATENATE($H$5,H68,$H$5)</f>
+        <v>"Norwegian Sun departure day Seattle"</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="2"/>
+        <v>"Norwegian Sun departure day Seattle"</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="4"/>
+        <v>        alt="Norwegian Sun departure day Seattle"</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0056</v>
+      </c>
+      <c r="E69" s="1">
+        <v>56</v>
+      </c>
+      <c r="G69" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="4"/>
+        <v>    &gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0057</v>
+      </c>
+      <c r="E70" s="1">
+        <v>57</v>
+      </c>
+      <c r="G70" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="4"/>
+        <v>      &lt;figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0058</v>
+      </c>
+      <c r="E71" s="1">
+        <v>58</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="2"/>
+        <v>Norwegian Sun departure day Seattle</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="4"/>
+        <v>        Norwegian Sun departure day Seattle</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="4"/>
+        <v>       &lt;!-- &lt;a href=</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+      <c r="F73" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" t="str">
+        <f>CONCATENATE($H$5,H73,$H$5)</f>
+        <v>""</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="2"/>
+        <v>""</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="4"/>
+        <v>""</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="4"/>
+        <v>            target="_blank"</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v>        &gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+      <c r="F76" t="s">
+        <v>93</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+      <c r="G77" t="s">
+        <v>100</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="4"/>
+        <v>        &lt;/a&gt; --&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0065</v>
+      </c>
+      <c r="E78" s="1">
+        <v>65</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="4"/>
+        <v>    &lt;/figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>Alaska20220601Cruise0066</v>
+      </c>
+      <c r="E79" s="1">
+        <v>66</v>
+      </c>
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;/figure&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" ref="J81:J95" si="7">IF(I81 &lt;&gt; "", I81,IF(H81 &lt;&gt; "",H81,""))</f>
+        <v/>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" ref="K81:K95" si="8">CONCATENATE(G81,J81)</f>
+        <v>&lt;figure&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">    &lt;img </v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" t="str">
+        <f>CONCATENATE($H$5,H83,$H$5)</f>
+        <v>"/images/202206Alaska/IMG_20220531_173736734_HDR240085.jpg"</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="7"/>
+        <v>"/images/202206Alaska/IMG_20220531_173736734_HDR240085.jpg"</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="8"/>
+        <v>        src="/images/202206Alaska/IMG_20220531_173736734_HDR240085.jpg"</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" t="s">
         <v>61</v>
       </c>
-      <c r="L35" t="str">
-        <f>CONCATENATE(F35,$H$6,$H$4,$H$5,G35,$H$5)</f>
-        <v>mdDescription: "June cruise to Alaska on the Norwegian Sun."</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0036</v>
-      </c>
-      <c r="E36" s="1">
-        <v>36</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f>G36</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0037</v>
-      </c>
-      <c r="E37" s="1">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" t="str">
-        <f>SUBSTITUTE(F37,"TOKEN",G37)</f>
-        <v>&lt;h4&gt;Google My Map&lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0038</v>
-      </c>
-      <c r="E38" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0039</v>
-      </c>
-      <c r="E39" s="1">
-        <v>39</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="L39" t="str">
-        <f>F39</f>
-        <v>&lt;div class="embed-responsive embed-responsive-16by9"&gt;</v>
-      </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0040</v>
-      </c>
-      <c r="E40" s="1">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="I84" t="str">
+        <f>CONCATENATE($H$5,H84,$H$5)</f>
+        <v>"LA CUCINA, Italian specialty dining"</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="7"/>
+        <v>"LA CUCINA, Italian specialty dining"</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="8"/>
+        <v>        alt="LA CUCINA, Italian specialty dining"</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="8"/>
+        <v>    &gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="8"/>
+        <v>      &lt;figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Departure and dinner at, </v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">        Departure and dinner at, </v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>70</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="8"/>
+        <v>        &lt;a href=</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H89" t="s">
+        <v>98</v>
+      </c>
+      <c r="I89" t="str">
+        <f>CONCATENATE($H$5,H89,$H$5)</f>
+        <v>"https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina"</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="7"/>
+        <v>"https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina"</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="8"/>
+        <v>"https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina"</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>71</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="8"/>
+        <v>            target="_blank"</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>72</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="8"/>
+        <v>        &gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" t="s">
+        <v>61</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="7"/>
+        <v>LA CUCINA, Italian specialty dining</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="8"/>
+        <v>LA CUCINA, Italian specialty dining</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="8"/>
+        <v>        &lt;/a&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="8"/>
+        <v>    &lt;/figcaption&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
         <v>55</v>
       </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="L40" t="str">
-        <f>SUBSTITUTE(F40,"TOKEN",G40)</f>
-        <v>   &lt;iframe src="https://www.google.com/maps/d/embed?mid=1uCSl3Hf9lG9KhiA4f7pXLCNO6rGKmTY&amp;ehbc=2E312F"&gt; &lt;/iframe&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0041</v>
-      </c>
-      <c r="E41" s="1">
-        <v>41</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" t="str">
-        <f>F41</f>
-        <v>&lt;/div&gt;</v>
-      </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0042</v>
-      </c>
-      <c r="E42" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0043</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L43" t="str">
-        <f>G43</f>
-        <v>&lt;br&gt;</v>
-      </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0044</v>
-      </c>
-      <c r="E44" s="1">
-        <v>44</v>
-      </c>
-      <c r="F44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L44" t="str">
-        <f>SUBSTITUTE(F44,"TOKEN",G44)</f>
-        <v>&lt;h4&gt;Day 1 - Seattle | 05-31&lt;/h4&gt;</v>
-      </c>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0045</v>
-      </c>
-      <c r="E45" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0046</v>
-      </c>
-      <c r="E46" s="1">
-        <v>46</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" t="str">
-        <f>F46</f>
-        <v>&lt;figure&gt;</v>
-      </c>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0047</v>
-      </c>
-      <c r="E47" s="1">
-        <v>47</v>
-      </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" t="str">
-        <f>SUBSTITUTE(F47,"TOKEN",G47)</f>
-        <v xml:space="preserve">    &lt;img src="/images/202206Alaska/IMG_20220531_134212537_HDR240085.jpg"  </v>
-      </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0048</v>
-      </c>
-      <c r="E48" s="1">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
-      <c r="L48" t="str">
-        <f>SUBSTITUTE(F48,"TOKEN",G48)</f>
-        <v>    alt="Norwegian Sun, departure day Seattle"&gt;</v>
-      </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0049</v>
-      </c>
-      <c r="E49" s="1">
-        <v>49</v>
-      </c>
-      <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s">
-        <v>70</v>
-      </c>
-      <c r="L49" t="str">
-        <f>SUBSTITUTE(F49,"TOKEN",G49)</f>
-        <v>    &lt;figcaption&gt;Norwegian Sun, departure day Seattle&lt;/figcaption&gt;</v>
-      </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0050</v>
-      </c>
-      <c r="E50" s="1">
-        <v>50</v>
-      </c>
-      <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50" t="str">
-        <f>F50</f>
+      <c r="J95" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K95" t="str">
+        <f t="shared" si="8"/>
         <v>&lt;/figure&gt;</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0051</v>
-      </c>
-      <c r="E51" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0061</v>
-      </c>
-      <c r="E52" s="1">
-        <v>61</v>
-      </c>
-      <c r="F52" t="s">
-        <v>51</v>
-      </c>
-      <c r="L52" t="str">
-        <f>F52</f>
-        <v>&lt;figure&gt;</v>
-      </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0062</v>
-      </c>
-      <c r="E53" s="1">
-        <v>62</v>
-      </c>
-      <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-      <c r="L53" t="str">
-        <f>SUBSTITUTE(F53,"TOKEN01",G53)</f>
-        <v>    &lt;img src="/images/202206Alaska/IMG_20220531_173736734_HDR240085.jpg"  alt="TOKEN02"&gt;</v>
-      </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0063</v>
-      </c>
-      <c r="E54" s="1">
-        <v>63</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="L54" t="e">
-        <f>SUBSTITUTE(SUBSTITUTE(F53,"TOKEN01",H53),F53,"TOKEN02",I53)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0064</v>
-      </c>
-      <c r="E55" s="1">
-        <v>64</v>
-      </c>
-      <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="L55" t="str">
-        <f>SUBSTITUTE(F55,"TOKEN",G55)</f>
-        <v>    &lt;figcaption&gt;LA CUCINA, Italian specialty dining&lt;/figcaption&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0065</v>
-      </c>
-      <c r="E56" s="1">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="L56" t="str">
-        <f>F56</f>
-        <v>&lt;/figure&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>Alaska20220601Cruise0066</v>
-      </c>
-      <c r="E57" s="1">
-        <v>66</v>
-      </c>
-      <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
-      <c r="L57" t="str">
-        <f>SUBSTITUTE(F57,"TOKEN",G57)</f>
-        <v>   &lt;a href="https://www.ncl.com/why-cruise-norwegian/cruise-dining/italian#la-cucina" target="_blank"&gt;LA CUCINA, Italian specialty dining&lt;/a&gt;</v>
-      </c>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
